--- a/Ing_economica/cap5/CLASEVALORPRESENTEVIRALUM.xlsx
+++ b/Ing_economica/cap5/CLASEVALORPRESENTEVIRALUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\cap5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5C550F-E192-4E26-9974-8C825A63D501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF085C7-AC10-4030-9663-20A09988DE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4487ACED-7675-497C-9C20-99B5491320E3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>Ejemplo 5.1</t>
   </si>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071FBBAD-66A2-495F-A12B-51B3EF0CD913}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,12 +1293,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
         <v>18</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1314,12 +1314,12 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>-131632.39596670112</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -1354,8 +1354,11 @@
         <f>-PV(D64,4,-5000)</f>
         <v>-17729.752520811802</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>-149362.14848751292</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,39 +1387,50 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>20</v>
       </c>
-      <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="8">
+        <v>-150000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="8">
+        <f>PV(C73,10,,50000)</f>
+        <v>-30695.662677037966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>22</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="8"/>
+      <c r="C76" s="8">
+        <f>-5000/C73</f>
+        <v>-100000</v>
+      </c>
       <c r="D76" s="1">
         <f>C76+C77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-149362.14848751292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="8">
+        <f>-PV(C73,4,,-3000/C73)</f>
+        <v>-49362.148487512917</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>57</v>
       </c>
@@ -1425,14 +1439,17 @@
         <v>-17729.752520811802</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="8">
+        <f>-PMT(C73,13,,-15000)/C73</f>
+        <v>-16936.729550318294</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>58</v>
       </c>
@@ -1445,21 +1462,21 @@
         <v>-149362.14848751292</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="1">
         <f>SUM(B74:B75)</f>
-        <v>0</v>
+        <v>-180695.66267703797</v>
       </c>
       <c r="C79" s="1">
         <f>SUM(C76:C78)</f>
-        <v>0</v>
+        <v>-166298.87803783122</v>
       </c>
       <c r="D79" s="8">
         <f>SUM(B79:C79)</f>
-        <v>0</v>
+        <v>-346994.54071486916</v>
       </c>
       <c r="E79" s="1">
         <f>E77+E78</f>
@@ -1473,7 +1490,10 @@
       <c r="A81" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="8">
+        <f>D79*C73</f>
+        <v>-17349.727035743457</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>56</v>
       </c>
@@ -1532,6 +1552,10 @@
       <c r="B88" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C88" s="1">
+        <f>-35000/D85</f>
+        <v>-583333.33333333337</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -1540,6 +1564,10 @@
       <c r="B89" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C89" s="1">
+        <f>-PMT(D85,10,,-100000)/D85</f>
+        <v>-126446.59703397306</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -1551,11 +1579,11 @@
       </c>
       <c r="C90" s="1">
         <f>SUM(C88:C89)</f>
-        <v>0</v>
+        <v>-709779.93036730646</v>
       </c>
       <c r="D90" s="1">
         <f>SUM(B90:C90)</f>
-        <v>-52000000</v>
+        <v>-52709779.930367306</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -1586,6 +1614,10 @@
       <c r="B94" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C94" s="1">
+        <f>-20000/D85</f>
+        <v>-333333.33333333337</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -1594,6 +1626,10 @@
       <c r="B95" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C95" s="1">
+        <f>-PMT(D85,3,,-40000)/D85</f>
+        <v>-209406.54186036778</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -1602,6 +1638,10 @@
       <c r="B96" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C96" s="1">
+        <f>-PMT(D85,10,,-190000)/D85</f>
+        <v>-240248.5343645488</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -1613,11 +1653,11 @@
       </c>
       <c r="C97" s="1">
         <f>SUM(C94:C96)</f>
-        <v>0</v>
+        <v>-782988.40955824987</v>
       </c>
       <c r="D97" s="8">
         <f>SUM(B97:C97)</f>
-        <v>-40000000</v>
+        <v>-40782988.409558252</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1651,10 +1691,13 @@
       <c r="B103" s="1">
         <v>-8000000</v>
       </c>
-      <c r="C103" s="8"/>
+      <c r="C103" s="8">
+        <f>-25000/D101</f>
+        <v>-166666.66666666669</v>
+      </c>
       <c r="D103" s="1">
         <f>B103+C103</f>
-        <v>-8000000</v>
+        <v>-8166666.666666667</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,7 +1723,10 @@
       <c r="B107" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="8"/>
+      <c r="C107" s="8">
+        <f>-PMT(D101,5,-275000*10)/D101</f>
+        <v>-5469118.4617946865</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -1689,7 +1735,10 @@
       <c r="B108" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C108" s="8"/>
+      <c r="C108" s="8">
+        <f>-12000*10/D101</f>
+        <v>-800000</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -1697,7 +1746,7 @@
       </c>
       <c r="D109" s="8">
         <f>SUM(C107:C108)</f>
-        <v>0</v>
+        <v>-6269118.4617946865</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,10 +1767,16 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
+      <c r="A113" s="12">
+        <f>NPER(15%,3,-18,3)</f>
+        <v>15.312223965460905</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="12"/>
+      <c r="A114" s="12">
+        <f>NPER(0%,3,-18,3)</f>
+        <v>5</v>
+      </c>
       <c r="B114" s="1">
         <v>-18</v>
       </c>
@@ -1777,11 +1832,19 @@
       <c r="A120" t="s">
         <v>37</v>
       </c>
+      <c r="B120" s="1">
+        <f>5000*6%/4</f>
+        <v>75</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="1">
+        <f>B120*4*10/0.6</f>
+        <v>5000</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>39</v>
       </c>
@@ -1806,7 +1869,10 @@
       <c r="A126" t="s">
         <v>37</v>
       </c>
-      <c r="B126" s="8"/>
+      <c r="B126" s="8">
+        <f>5000*4.5%/2</f>
+        <v>112.5</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>43</v>
       </c>
@@ -1815,14 +1881,20 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C127" s="11"/>
+      <c r="C127" s="11">
+        <f>EFFECT(8%/2,2)</f>
+        <v>4.0399999999999991E-2</v>
+      </c>
       <c r="D127" s="10"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>51</v>
       </c>
-      <c r="B128" s="8"/>
+      <c r="B128" s="8">
+        <f>-PV(C127,20,B126,5000)</f>
+        <v>3787.9626772049178</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
